--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>7.92017790036887</v>
+        <v>9.990842018928157</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>17.92017790036887</v>
+        <v>19.99084201892816</v>
       </c>
     </row>
     <row r="23">
@@ -1039,6 +1039,198 @@
       </c>
       <c r="F25" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.135171668018383</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15.13517166801838</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6.866666666666667</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8.266666666666667</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15.13333333333333</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>5.135171668018383</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>15.13517166801838</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1176,13 +1176,13 @@
         <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="33">
@@ -1224,12 +1224,108 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>7.184513192693277</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
+        <v>7.184513192693277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>8.612975372900332</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.255128526390363</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17.86810389929069</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7.066666666666666</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7.066666666666666</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.553539578079831</v>
+        <v>7.807223152355895</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.553539578079831</v>
+        <v>7.807223152355895</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,13 +648,13 @@
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>9.352543206839286</v>
+        <v>9.556206649127002</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>19.35254320683929</v>
+        <v>19.556206649127</v>
       </c>
     </row>
     <row r="10">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.297322797499705</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8.297322797499705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>8.648049807727523</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>8.648049807727523</v>
       </c>
     </row>
     <row r="22">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>9.297281550165639</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>9.297281550165639</v>
       </c>
     </row>
     <row r="26">
@@ -1080,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>7.184513192693277</v>
+        <v>7.448457306864388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.184513192693277</v>
+        <v>7.448457306864388</v>
       </c>
     </row>
     <row r="34">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.612975372900332</v>
+        <v>8.871553259865633</v>
       </c>
       <c r="D34" t="n">
-        <v>9.255128526390363</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>17.86810389929069</v>
+        <v>18.87155325986564</v>
       </c>
     </row>
     <row r="35">
@@ -1326,6 +1326,102 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.286000286000286</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.286000286000286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>9.433333333333334</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.466666666666665</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>5.286000286000286</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>5.286000286000286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1422,6 +1422,102 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>9.656097219012882</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.895494984977732</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>19.55159220399062</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.429000429000429</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5.429000429000429</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5.466666666666665</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.466666666666665</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9.656097219012882</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>9.895494984977732</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>19.55159220399062</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.429000429000429</v>
+        <v>5.5005005005005</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.429000429000429</v>
+        <v>5.5005005005005</v>
       </c>
     </row>
     <row r="44">
@@ -1519,6 +1519,102 @@
       </c>
       <c r="F45" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.325823290727962</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>19.32582329072796</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.071500071500071</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.071500071500071</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.233333333333333</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>19.23333333333333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>9.297281550165639</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7.224228653432193</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>16.52151020359783</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1536,13 +1536,13 @@
         <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>9.325823290727962</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.32582329072796</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -1560,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>5.071500071500071</v>
+        <v>5.464750464750465</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>5.071500071500071</v>
+        <v>5.464750464750465</v>
       </c>
     </row>
     <row r="48">
@@ -1615,6 +1615,102 @@
       </c>
       <c r="F49" t="n">
         <v>16.52151020359783</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>9.912783085418916</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8.086492844885454</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>17.99927593030437</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8.704137766084667</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>18.70413776608467</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9.912783085418916</v>
+        <v>9.964676051248118</v>
       </c>
       <c r="D50" t="n">
-        <v>8.086492844885454</v>
+        <v>9.229307393718706</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>17.99927593030437</v>
+        <v>19.19398344496683</v>
       </c>
     </row>
     <row r="51">
@@ -1711,6 +1711,390 @@
       </c>
       <c r="F53" t="n">
         <v>18.70413776608467</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>9.533333333333333</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8.533333333333333</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>18.06666666666667</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>10</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7.986606075101652</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>17.98660607510165</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>10</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>10</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>10</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8.704137766084667</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>18.70413776608467</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9.328620175690039</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>19.32862017569004</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8.566666666666666</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8.566666666666666</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2016,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>9.328620175690039</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>19.32862017569004</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -2095,6 +2095,102 @@
       </c>
       <c r="F69" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>9.791585277856878</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>19.79158527785688</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>10</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>10</v>
+      </c>
+      <c r="D73" t="n">
+        <v>9.197440803635494</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>19.19744080363549</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9.791585277856878</v>
+        <v>9.830627617743</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>19.79158527785688</v>
+        <v>19.830627617743</v>
       </c>
     </row>
     <row r="71">
@@ -2191,6 +2191,198 @@
       </c>
       <c r="F73" t="n">
         <v>19.19744080363549</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>10</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9.790047876790231</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>19.79004787679023</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.035750035750036</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5.035750035750036</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.2666666666666657</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.2666666666666657</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -2208,13 +2208,13 @@
         <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>9.790047876790231</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>19.79004787679023</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>5.035750035750036</v>
+        <v>5.536250536250536</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>5.035750035750036</v>
+        <v>5.536250536250536</v>
       </c>
     </row>
     <row r="76">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>9.543199674630392</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>6.086067018668716</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>15.62926669329911</v>
       </c>
     </row>
     <row r="79">
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>5.266666666666666</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>15.26666666666667</v>
       </c>
     </row>
     <row r="81">
@@ -2376,13 +2376,13 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>9.287132265008371</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>9.287132265008371</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9.543199674630392</v>
+        <v>9.717843849060959</v>
       </c>
       <c r="D78" t="n">
-        <v>6.086067018668716</v>
+        <v>7.92017790036887</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>15.62926669329911</v>
+        <v>17.63802174942983</v>
       </c>
     </row>
     <row r="79">
@@ -2383,6 +2383,294 @@
       </c>
       <c r="F81" t="n">
         <v>9.287132265008371</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>10</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7.364862235903361</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17.36486223590336</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>5.614872685185185</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5.614872685185185</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2.466666666666665</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12.46666666666667</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9.018057880889739</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>9.018057880889739</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>9.883803352612128</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8.689684777358082</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>18.57348812997021</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.466666666666665</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11.46666666666667</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>10</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>8.930160447946134</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8.930160447946134</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>10</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>8.648049807727523</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8.648049807727523</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8.930160447946134</v>
+        <v>9.224240567669321</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>8.930160447946134</v>
+        <v>9.224240567669321</v>
       </c>
     </row>
     <row r="91">
@@ -2671,6 +2671,198 @@
       </c>
       <c r="F93" t="n">
         <v>8.648049807727523</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>10</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>4.133333333333333</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4.133333333333333</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>7.062117055431884</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7.062117055431884</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>9.633333333333333</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9.633333333333333</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.062117055431884</v>
+        <v>8.477151835919745</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>7.062117055431884</v>
+        <v>8.477151835919745</v>
       </c>
     </row>
     <row r="99">
@@ -2863,6 +2863,102 @@
       </c>
       <c r="F101" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>7.776348091509672</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.776348091509672</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>10</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>10</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7.776348091509672</v>
+        <v>8.172556287543546</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>7.776348091509672</v>
+        <v>8.172556287543546</v>
       </c>
     </row>
     <row r="103">
@@ -2959,6 +2959,102 @@
       </c>
       <c r="F105" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>9.614946288626287</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9.614946288626287</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>7.733333333333334</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7.733333333333334</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9.614946288626287</v>
+        <v>9.778469025197799</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>9.614946288626287</v>
+        <v>9.778469025197799</v>
       </c>
     </row>
     <row r="107">
@@ -3055,6 +3055,102 @@
       </c>
       <c r="F109" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>10</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>6.085069444444445</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6.085069444444445</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>10</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>9.297281550165639</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9.297281550165639</v>
       </c>
     </row>
   </sheetData>
